--- a/fuentes/contenidos/grado11/guion11/esqueletoGuion_CN_11_11_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion11/esqueletoGuion_CN_11_11_CO.xlsx
@@ -13,7 +13,7 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
